--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yftang\Documents\R\Spr2017-Proj1-CatherineTang\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>President</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Donald J. Trump</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -183,138 +180,929 @@
     <t>Republican</t>
   </si>
   <si>
-    <t>GeorgeWashington</t>
+    <t>File</t>
   </si>
   <si>
-    <t>JohnAdams</t>
+    <r>
+      <t>GeorgeWashington</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ThomasJefferson</t>
+    <r>
+      <t>GeorgeWashington</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JamesMadison</t>
+    <r>
+      <t>JohnAdams</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JamesMonroe</t>
+    <r>
+      <t>ThomasJefferson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JohnQuincyAdams</t>
+    <r>
+      <t>ThomasJefferson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AndrewJackson</t>
+    <r>
+      <t>JamesMadison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MartinvanBuren</t>
+    <r>
+      <t>JamesMadison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WilliamHenryHarrison</t>
+    <r>
+      <t>JamesMonroe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ZacharyTaylor</t>
+    <r>
+      <t>JamesMonroe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FranklinPierce</t>
+    <r>
+      <t>JohnQuincyAdams</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JamesBuchanan</t>
+    <r>
+      <t>AndrewJackson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AbrahamLincoln</t>
+    <r>
+      <t>AndrewJackson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JamesGarfield</t>
+    <r>
+      <t>MartinvanBuren</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GroverCleveland-I</t>
+    <r>
+      <t>WilliamHenryHarrison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BenjaminHarrison</t>
+    <r>
+      <t>JamesKPolk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GroverCleveland-II</t>
+    <r>
+      <t>ZacharyTaylor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WilliamMcKinley</t>
+    <r>
+      <t>FranklinPierce</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TheodoreRoosevelt</t>
+    <r>
+      <t>JamesBuchanan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WilliamHowardTaft</t>
+    <r>
+      <t>AbrahamLincoln</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WoodrowWilson</t>
+    <r>
+      <t>AbrahamLincoln</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CalvinCoolidge</t>
+    <r>
+      <t>UlyssesSGrant</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HerbertHoover</t>
+    <r>
+      <t>UlyssesSGrant</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RichardNixon</t>
+    <r>
+      <t>RutherfordBHayes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JimmyCarter</t>
+    <r>
+      <t>JamesGarfield</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RonaldReagan</t>
+    <r>
+      <t>GroverCleveland-I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GeorgeBush</t>
+    <r>
+      <t>BenjaminHarrison</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BarackObama</t>
+    <r>
+      <t>GroverCleveland-II</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JamesKPolk</t>
+    <r>
+      <t>WilliamMcKinley</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UlyssesSGrant</t>
+    <r>
+      <t>WilliamMcKinley</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RutherfordBHayes</t>
+    <r>
+      <t>TheodoreRoosevelt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WarrenGHarding</t>
+    <r>
+      <t>WilliamHowardTaft</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FranklinDRoosevelt</t>
+    <r>
+      <t>WoodrowWilson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HarrySTruman</t>
+    <r>
+      <t>WoodrowWilson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DwightDEisenhower</t>
+    <r>
+      <t>WarrenGHarding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>JohnFKennedy</t>
+    <r>
+      <t>CalvinCoolidge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LyndonBJohnson</t>
+    <r>
+      <t>HerbertHoover</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WilliamJClinton</t>
+    <r>
+      <t>FranklinDRoosevelt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GeorgeWBush</t>
+    <r>
+      <t>FranklinDRoosevelt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DonaldJTrump</t>
+    <r>
+      <t>FranklinDRoosevelt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>File</t>
+    <r>
+      <t>FranklinDRoosevelt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HarrySTruman</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DwightDEisenhower</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DwightDEisenhower</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JohnFKennedy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LyndonBJohnson</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RichardNixon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RichardNixon</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JimmyCarter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RonaldReagan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RonaldReagan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GeorgeBush</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WilliamJClinton</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WilliamJClinton</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GeorgeWBush</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BarackObama</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeorgeWBush-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DonaldJTrump</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarackObama-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,6 +1116,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,19 +1152,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -13291,1026 +14099,1205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E52" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.07421875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4">
         <v>1431</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4">
         <v>135</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4">
         <v>2321</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4">
         <v>1730</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4">
         <v>2166</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4">
         <v>1177</v>
       </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4">
         <v>1211</v>
       </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4">
         <v>3375</v>
       </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4">
         <v>4472</v>
       </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4">
         <v>2915</v>
       </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4">
         <v>1128</v>
       </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4">
         <v>1176</v>
       </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4">
         <v>3843</v>
       </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4">
         <v>8460</v>
       </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4">
         <v>4809</v>
       </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4">
         <v>1090</v>
       </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4">
         <v>3336</v>
       </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4">
         <v>2831</v>
       </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4">
         <v>3637</v>
       </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="2">
+        <v>49</v>
+      </c>
+      <c r="E21" s="4">
         <v>700</v>
       </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4">
         <v>1127</v>
       </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4">
         <v>1339</v>
       </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4">
         <v>2486</v>
       </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4">
         <v>2979</v>
       </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2">
+        <v>47</v>
+      </c>
+      <c r="E26" s="4">
         <v>1686</v>
       </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="2">
+        <v>49</v>
+      </c>
+      <c r="E27" s="4">
         <v>4392</v>
       </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4">
         <v>2015</v>
       </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2">
+        <v>49</v>
+      </c>
+      <c r="E29" s="4">
         <v>3968</v>
       </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="2">
+        <v>49</v>
+      </c>
+      <c r="E30" s="4">
         <v>2218</v>
       </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4">
         <v>984</v>
       </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>70</v>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4">
         <v>5434</v>
       </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>71</v>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="2">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4">
         <v>1704</v>
       </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="2">
+        <v>47</v>
+      </c>
+      <c r="E34" s="4">
         <v>1526</v>
       </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4">
         <v>3329</v>
       </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="2">
+        <v>49</v>
+      </c>
+      <c r="E36" s="4">
         <v>4055</v>
       </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4">
         <v>3672</v>
       </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="2">
+        <v>47</v>
+      </c>
+      <c r="E38" s="4">
         <v>1880</v>
       </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2">
+        <v>47</v>
+      </c>
+      <c r="E39" s="4">
         <v>1808</v>
       </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>83</v>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2">
+        <v>47</v>
+      </c>
+      <c r="E40" s="4">
         <v>1359</v>
       </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>83</v>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2">
+        <v>47</v>
+      </c>
+      <c r="E41" s="4">
         <v>559</v>
       </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>84</v>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="2">
+        <v>47</v>
+      </c>
+      <c r="E42" s="4">
         <v>2273</v>
       </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
+      <c r="B43" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2">
+        <v>49</v>
+      </c>
+      <c r="E43" s="4">
         <v>2459</v>
       </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="2">
+        <v>49</v>
+      </c>
+      <c r="E44" s="4">
         <v>1658</v>
       </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2">
+        <v>47</v>
+      </c>
+      <c r="E45" s="4">
         <v>1366</v>
       </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="2">
+        <v>47</v>
+      </c>
+      <c r="E46" s="4">
         <v>1507</v>
       </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>74</v>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="2">
+        <v>49</v>
+      </c>
+      <c r="E47" s="4">
         <v>2128</v>
       </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>74</v>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="2">
+        <v>49</v>
+      </c>
+      <c r="E48" s="4">
         <v>1803</v>
       </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>75</v>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1229</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
-      <c r="E49" s="2">
-        <v>1229</v>
-      </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>76</v>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="2">
+        <v>49</v>
+      </c>
+      <c r="E50" s="4">
         <v>2427</v>
       </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>76</v>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2561</v>
+      </c>
+      <c r="F51">
         <v>50</v>
       </c>
-      <c r="E51" s="2">
-        <v>2561</v>
-      </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>77</v>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="2">
+        <v>49</v>
+      </c>
+      <c r="E52" s="4">
         <v>2320</v>
       </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>88</v>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="2">
+        <v>47</v>
+      </c>
+      <c r="E53" s="4">
         <v>1598</v>
       </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="2">
+        <v>47</v>
+      </c>
+      <c r="E54" s="4">
         <v>2155</v>
       </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>89</v>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="2">
+        <v>49</v>
+      </c>
+      <c r="E55" s="4">
         <v>1592</v>
       </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>89</v>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="2">
+        <v>49</v>
+      </c>
+      <c r="E56" s="4">
         <v>2071</v>
       </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>78</v>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="2">
+        <v>47</v>
+      </c>
+      <c r="E57" s="4">
         <v>2395</v>
       </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>78</v>
+      <c r="B58" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="2">
+        <v>47</v>
+      </c>
+      <c r="E58" s="4">
         <v>2096</v>
       </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>90</v>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1443</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14320,8 +15307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
